--- a/1_Python/Chap1/Helloworld/excel/airline1.xlsx
+++ b/1_Python/Chap1/Helloworld/excel/airline1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnpython\1_Python\Chap1\Helloworld\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5C18C8-0FCA-481B-BE9E-B3A96C38544C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528AEBE-EC39-4725-ADDB-243BD3430FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -362,7 +364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
@@ -1031,4 +1033,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F907E3-C18F-4786-9A1C-5C003451A2F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DE1E65-5D6F-47B6-84ED-280901030BE5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>